--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D3B28-8FA4-4CE5-AF47-F73CBA799603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5F2D9-D3F0-4D42-9133-DC0F68FA2A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6150" yWindow="4080" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
   <si>
     <t>Usuario</t>
   </si>
@@ -150,30 +158,12 @@
     <t>27/08/2020</t>
   </si>
   <si>
-    <t>SSA009</t>
-  </si>
-  <si>
-    <t>ABC12SSA009</t>
-  </si>
-  <si>
-    <t>ZAZ123SSA009</t>
-  </si>
-  <si>
-    <t>SSA010</t>
-  </si>
-  <si>
     <t>SSA011</t>
   </si>
   <si>
-    <t>ABC12SSA010</t>
-  </si>
-  <si>
     <t>ABC12SSA011</t>
   </si>
   <si>
-    <t>ZAZ123SSA010</t>
-  </si>
-  <si>
     <t>ZAZ123SSA011</t>
   </si>
   <si>
@@ -208,6 +198,27 @@
   </si>
   <si>
     <t>ZAZ123RGR010</t>
+  </si>
+  <si>
+    <t>03/02/2021</t>
+  </si>
+  <si>
+    <t>RPR007</t>
+  </si>
+  <si>
+    <t>ABC12RPR007</t>
+  </si>
+  <si>
+    <t>ZAZ123RPR007</t>
+  </si>
+  <si>
+    <t>RPR008</t>
+  </si>
+  <si>
+    <t>ABC12RPR008</t>
+  </si>
+  <si>
+    <t>ZAZ123RPR008</t>
   </si>
 </sst>
 </file>
@@ -572,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +691,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="5">
-        <v>2551825244</v>
+        <v>1785991583</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -699,7 +710,7 @@
       </c>
       <c r="K2"/>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="N2">
         <v>2020</v>
@@ -717,13 +728,13 @@
         <v>37</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>18</v>
@@ -743,7 +754,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5">
-        <v>6469716529</v>
+        <v>1785991583</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -764,7 +775,7 @@
         <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="M3" t="s">
         <v>39</v>
@@ -785,13 +796,13 @@
         <v>37</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>18</v>
@@ -851,13 +862,13 @@
         <v>25</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>18</v>
@@ -865,16 +876,16 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>7557632631</v>
@@ -895,10 +906,10 @@
         <v>24</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="N5">
         <v>2020</v>
@@ -916,13 +927,13 @@
         <v>25</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>18</v>
@@ -930,16 +941,16 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E6">
         <v>7557632631</v>
@@ -961,7 +972,7 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6">
@@ -980,13 +991,13 @@
         <v>25</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>18</v>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D5F2D9-D3F0-4D42-9133-DC0F68FA2A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7D182-9EF7-490C-A3A4-66BD7A137AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6150" yWindow="4080" windowWidth="15375" windowHeight="7875" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Usuario</t>
   </si>
@@ -179,27 +179,6 @@
     <t>1.VUELVE CLIENTE</t>
   </si>
   <si>
-    <t>20/09/2020</t>
-  </si>
-  <si>
-    <t>RGR009</t>
-  </si>
-  <si>
-    <t>RGR010</t>
-  </si>
-  <si>
-    <t>ABC12RGR009</t>
-  </si>
-  <si>
-    <t>ABC12RGR010</t>
-  </si>
-  <si>
-    <t>ZAZ123RGR009</t>
-  </si>
-  <si>
-    <t>ZAZ123RGR010</t>
-  </si>
-  <si>
     <t>03/02/2021</t>
   </si>
   <si>
@@ -219,6 +198,30 @@
   </si>
   <si>
     <t>ZAZ123RPR008</t>
+  </si>
+  <si>
+    <t>Es0km</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>SinAsistenciaMecanica</t>
+  </si>
+  <si>
+    <t>03/05/2022</t>
+  </si>
+  <si>
+    <t>CodigoAgente</t>
+  </si>
+  <si>
+    <t>NUM_GRUPO</t>
+  </si>
+  <si>
+    <t>Mattioli</t>
   </si>
 </sst>
 </file>
@@ -288,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -300,6 +303,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -581,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,23 +599,23 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="13" width="21.28515625" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="74.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="5" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="15" width="21.28515625" customWidth="1"/>
+    <col min="16" max="17" width="15.42578125" customWidth="1"/>
+    <col min="18" max="18" width="11.140625" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -626,58 +632,70 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>15</v>
       </c>
+      <c r="Z1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -693,54 +711,62 @@
       <c r="E2" s="5">
         <v>1785991583</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="K2"/>
-      <c r="L2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2">
-        <v>2020</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="M2"/>
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2">
+        <v>2021</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" t="s">
         <v>26</v>
       </c>
-      <c r="P2" t="s">
+      <c r="S2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
+      <c r="T2">
         <v>934000</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="V2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -756,59 +782,67 @@
       <c r="E3" s="5">
         <v>1785991583</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="N3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="N3">
-        <v>2020</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3">
+        <v>2021</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" t="s">
         <v>26</v>
       </c>
-      <c r="P3" t="s">
+      <c r="S3" t="s">
         <v>28</v>
       </c>
-      <c r="Q3">
+      <c r="T3">
         <v>934000</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Z3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -824,57 +858,60 @@
       <c r="E4" s="5">
         <v>8773926396</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="M4"/>
-      <c r="N4">
+      <c r="O4"/>
+      <c r="P4">
         <v>2020</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4"/>
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="S4" t="s">
         <v>28</v>
       </c>
-      <c r="Q4">
+      <c r="T4">
         <v>934000</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
@@ -890,56 +927,68 @@
       <c r="E5">
         <v>7557632631</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5">
+        <v>2302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N5">
-        <v>2020</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5">
+        <v>2021</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>28</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>1000000</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -955,52 +1004,64 @@
       <c r="E6">
         <v>7557632631</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6">
+        <v>2302</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>17</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="M6" s="1"/>
-      <c r="N6">
-        <v>2020</v>
-      </c>
-      <c r="O6" t="s">
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6">
+        <v>2021</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
       </c>
-      <c r="P6" t="s">
+      <c r="S6" t="s">
         <v>28</v>
       </c>
-      <c r="Q6">
+      <c r="T6">
         <v>1000000</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD7D182-9EF7-490C-A3A4-66BD7A137AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221FD6C2-891E-4B96-A17C-5F025F738B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
   <si>
     <t>Usuario</t>
   </si>
@@ -152,9 +153,6 @@
     <t>Débito Bancario</t>
   </si>
   <si>
-    <t>COTIZADORWEB</t>
-  </si>
-  <si>
     <t>27/08/2020</t>
   </si>
   <si>
@@ -179,9 +177,6 @@
     <t>1.VUELVE CLIENTE</t>
   </si>
   <si>
-    <t>03/02/2021</t>
-  </si>
-  <si>
     <t>RPR007</t>
   </si>
   <si>
@@ -222,6 +217,30 @@
   </si>
   <si>
     <t>Mattioli</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>10/03/2021</t>
+  </si>
+  <si>
+    <t>RPM007</t>
+  </si>
+  <si>
+    <t>RPM006</t>
+  </si>
+  <si>
+    <t>ABC12RPM006</t>
+  </si>
+  <si>
+    <t>ZAZ123RPM006</t>
+  </si>
+  <si>
+    <t>ABC12RPM007</t>
+  </si>
+  <si>
+    <t>ZAZ123RPM007</t>
   </si>
 </sst>
 </file>
@@ -587,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,11 +627,12 @@
     <col min="18" max="18" width="11.140625" customWidth="1"/>
     <col min="19" max="19" width="7.85546875" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="74.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.85546875" customWidth="1"/>
     <col min="22" max="22" width="8" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" customWidth="1"/>
     <col min="25" max="25" width="12.42578125" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -632,10 +652,10 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -665,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s">
         <v>8</v>
@@ -692,7 +712,7 @@
         <v>15</v>
       </c>
       <c r="Z1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -709,10 +729,14 @@
         <v>32</v>
       </c>
       <c r="E2" s="5">
-        <v>1785991583</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+        <v>9651159553</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2302</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
@@ -720,7 +744,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -730,13 +754,13 @@
       </c>
       <c r="M2"/>
       <c r="N2" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="P2">
         <v>2021</v>
       </c>
       <c r="Q2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
@@ -751,19 +775,19 @@
         <v>37</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Z2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -780,10 +804,14 @@
         <v>32</v>
       </c>
       <c r="E3" s="5">
-        <v>1785991583</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+        <v>9651159553</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2302</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
@@ -791,7 +819,7 @@
         <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>35</v>
@@ -803,16 +831,14 @@
         <v>23</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="O3"/>
       <c r="P3">
         <v>2021</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
         <v>26</v>
@@ -827,240 +853,18 @@
         <v>37</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="Z3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5">
-        <v>8773926396</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4"/>
-      <c r="P4">
-        <v>2020</v>
-      </c>
-      <c r="Q4"/>
-      <c r="R4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4">
-        <v>934000</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5">
-        <v>7557632631</v>
-      </c>
-      <c r="F5">
-        <v>2302</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5">
-        <v>2021</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5">
-        <v>1000000</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6">
-        <v>7557632631</v>
-      </c>
-      <c r="F6">
-        <v>2302</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6">
-        <v>2021</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>57</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6">
-        <v>1000000</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1069,11 +873,250 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{E475BCAC-0925-47C7-AAB7-A81C65C95B6F}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{D728F3B1-A855-4686-A962-010CCCA5E6C3}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{A42C4916-8BD6-49E4-9646-6F39DFBD1C31}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{AB63469B-EDA2-4E4E-925B-6C5A8A8C78F9}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{B1654328-BF60-40A3-A134-3701693A7710}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A52CCAF-1465-4F3A-B5F2-0A04D3592E2D}">
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="5">
+        <v>8773926396</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1"/>
+      <c r="P1">
+        <v>2020</v>
+      </c>
+      <c r="Q1"/>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1">
+        <v>934000</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>7557632631</v>
+      </c>
+      <c r="F2">
+        <v>2302</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2">
+        <v>2021</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2">
+        <v>1000000</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>7557632631</v>
+      </c>
+      <c r="F3">
+        <v>2302</v>
+      </c>
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3">
+        <v>2021</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3">
+        <v>1000000</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{A42C4916-8BD6-49E4-9646-6F39DFBD1C31}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{AB63469B-EDA2-4E4E-925B-6C5A8A8C78F9}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{B1654328-BF60-40A3-A134-3701693A7710}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221FD6C2-891E-4B96-A17C-5F025F738B5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B01C3-8E4A-419D-8FA7-3757CA4F5873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -618,7 +618,9 @@
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="7" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="9" max="10" width="19.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830B01C3-8E4A-419D-8FA7-3757CA4F5873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BDF170-7DA3-425B-9BD3-FDB7E5340E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
   <si>
     <t>Usuario</t>
   </si>
@@ -222,25 +222,28 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>10/03/2021</t>
-  </si>
-  <si>
-    <t>RPM007</t>
-  </si>
-  <si>
-    <t>RPM006</t>
-  </si>
-  <si>
-    <t>ABC12RPM006</t>
-  </si>
-  <si>
-    <t>ZAZ123RPM006</t>
-  </si>
-  <si>
-    <t>ABC12RPM007</t>
-  </si>
-  <si>
-    <t>ZAZ123RPM007</t>
+    <t>07/04/2021</t>
+  </si>
+  <si>
+    <t>'07/04/2021</t>
+  </si>
+  <si>
+    <t>RGA007</t>
+  </si>
+  <si>
+    <t>ABC12RGA007</t>
+  </si>
+  <si>
+    <t>ZAZ123RGA007</t>
+  </si>
+  <si>
+    <t>RGA008</t>
+  </si>
+  <si>
+    <t>ABC12RGA008</t>
+  </si>
+  <si>
+    <t>ZAZ123RGA008</t>
   </si>
 </sst>
 </file>
@@ -608,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +734,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="5">
-        <v>9651159553</v>
+        <v>2240451788</v>
       </c>
       <c r="F2" s="7">
         <v>2302</v>
@@ -806,7 +809,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="5">
-        <v>9651159553</v>
+        <v>2240451788</v>
       </c>
       <c r="F3" s="7">
         <v>2302</v>
@@ -833,7 +836,7 @@
         <v>23</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O3"/>
       <c r="P3">
@@ -855,13 +858,13 @@
         <v>37</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>18</v>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BDF170-7DA3-425B-9BD3-FDB7E5340E2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC234F-8C53-47B9-9CD1-02F052A46048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="179">
   <si>
     <t>Usuario</t>
   </si>
@@ -222,28 +222,355 @@
     <t>Anual</t>
   </si>
   <si>
-    <t>07/04/2021</t>
-  </si>
-  <si>
-    <t>'07/04/2021</t>
-  </si>
-  <si>
-    <t>RGA007</t>
-  </si>
-  <si>
-    <t>ABC12RGA007</t>
-  </si>
-  <si>
-    <t>ZAZ123RGA007</t>
-  </si>
-  <si>
-    <t>RGA008</t>
-  </si>
-  <si>
-    <t>ABC12RGA008</t>
-  </si>
-  <si>
-    <t>ZAZ123RGA008</t>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>RGM007</t>
+  </si>
+  <si>
+    <t>ABC12RGM007</t>
+  </si>
+  <si>
+    <t>ZAZ123RGM007</t>
+  </si>
+  <si>
+    <t>RGM008</t>
+  </si>
+  <si>
+    <t>ABC12RGM008</t>
+  </si>
+  <si>
+    <t>ZAZ123RGM008</t>
+  </si>
+  <si>
+    <t>i-preproducciongestion.segurossura.com.ar</t>
+  </si>
+  <si>
+    <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Answer</t>
+  </si>
+  <si>
+    <t>1 mes</t>
+  </si>
+  <si>
+    <t>Naranja</t>
+  </si>
+  <si>
+    <t>03/2025</t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>COTIZADORWEB</t>
+  </si>
+  <si>
+    <t>5895627074474009</t>
+  </si>
+  <si>
+    <t>1. VUELVE CLIENTE</t>
+  </si>
+  <si>
+    <t>PQM001</t>
+  </si>
+  <si>
+    <t>PQM003</t>
+  </si>
+  <si>
+    <t>PQM004</t>
+  </si>
+  <si>
+    <t>PQM005</t>
+  </si>
+  <si>
+    <t>PQM006</t>
+  </si>
+  <si>
+    <t>PQM007</t>
+  </si>
+  <si>
+    <t>PQM008</t>
+  </si>
+  <si>
+    <t>PQM009</t>
+  </si>
+  <si>
+    <t>ABC12PQM001</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM001</t>
+  </si>
+  <si>
+    <t>PQM002</t>
+  </si>
+  <si>
+    <t>ABC12PQM002</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM002</t>
+  </si>
+  <si>
+    <t>ABC12PQM003</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM003</t>
+  </si>
+  <si>
+    <t>ABC12PQM004</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM004</t>
+  </si>
+  <si>
+    <t>ABC12PQM005</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM005</t>
+  </si>
+  <si>
+    <t>ABC12PQM006</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM006</t>
+  </si>
+  <si>
+    <t>ABC12PQM007</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM007</t>
+  </si>
+  <si>
+    <t>ABC12PQM008</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM008</t>
+  </si>
+  <si>
+    <t>ABC12PQM009</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM009</t>
+  </si>
+  <si>
+    <t>PQM010</t>
+  </si>
+  <si>
+    <t>ABC12PQM010</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM010</t>
+  </si>
+  <si>
+    <t>PQM011</t>
+  </si>
+  <si>
+    <t>ABC12PQM011</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM011</t>
+  </si>
+  <si>
+    <t>CHERY</t>
+  </si>
+  <si>
+    <t>QQ 1.0 CONFORT SECURITY (NUEVO)</t>
+  </si>
+  <si>
+    <t>PQM012</t>
+  </si>
+  <si>
+    <t>ABC12PQM012</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM012</t>
+  </si>
+  <si>
+    <t>PQM013</t>
+  </si>
+  <si>
+    <t>ABC12PQM013</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM013</t>
+  </si>
+  <si>
+    <t>PQM014</t>
+  </si>
+  <si>
+    <t>ABC12PQM014</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM014</t>
+  </si>
+  <si>
+    <t>PQM015</t>
+  </si>
+  <si>
+    <t>ABC12PQM015</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM015</t>
+  </si>
+  <si>
+    <t>PQM016</t>
+  </si>
+  <si>
+    <t>ABC12PQM016</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM016</t>
+  </si>
+  <si>
+    <t>PQM017</t>
+  </si>
+  <si>
+    <t>ABC12PQM017</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM017</t>
+  </si>
+  <si>
+    <t>PQM018</t>
+  </si>
+  <si>
+    <t>ABC12PQM018</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM018</t>
+  </si>
+  <si>
+    <t>PQM019</t>
+  </si>
+  <si>
+    <t>ABC12PQM019</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM019</t>
+  </si>
+  <si>
+    <t>PQM020</t>
+  </si>
+  <si>
+    <t>ABC12PQM020</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM020</t>
+  </si>
+  <si>
+    <t>PQM021</t>
+  </si>
+  <si>
+    <t>ABC12PQM021</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM021</t>
+  </si>
+  <si>
+    <t>Di Croce Ruben Angel - Cta.4</t>
+  </si>
+  <si>
+    <t>CHEVROLET</t>
+  </si>
+  <si>
+    <t>ONIX 1.4 JOY L/19</t>
+  </si>
+  <si>
+    <t>C - Resp. Civil-Robo/Incendio Total y Parcial Daños Totales por Accidente</t>
+  </si>
+  <si>
+    <t>PQM022</t>
+  </si>
+  <si>
+    <t>ABC12PQM022</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM022</t>
+  </si>
+  <si>
+    <t>PQM023</t>
+  </si>
+  <si>
+    <t>ABC12PQM023</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM023</t>
+  </si>
+  <si>
+    <t>PQM024</t>
+  </si>
+  <si>
+    <t>ABC12PQM024</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM024</t>
+  </si>
+  <si>
+    <t>PQM025</t>
+  </si>
+  <si>
+    <t>ABC12PQM025</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM025</t>
+  </si>
+  <si>
+    <t>PQM026</t>
+  </si>
+  <si>
+    <t>ABC12PQM026</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM026</t>
+  </si>
+  <si>
+    <t>PQM027</t>
+  </si>
+  <si>
+    <t>ABC12PQM027</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM027</t>
+  </si>
+  <si>
+    <t>PQM028</t>
+  </si>
+  <si>
+    <t>ABC12PQM028</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM028</t>
+  </si>
+  <si>
+    <t>PQM029</t>
+  </si>
+  <si>
+    <t>ABC12PQM029</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM029</t>
+  </si>
+  <si>
+    <t>PQM030</t>
+  </si>
+  <si>
+    <t>ABC12PQM030</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM030</t>
+  </si>
+  <si>
+    <t>PQM031</t>
+  </si>
+  <si>
+    <t>ABC12PQM031</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM031</t>
   </si>
 </sst>
 </file>
@@ -279,12 +606,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -313,7 +646,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -328,6 +661,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -609,287 +948,2645 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="10" width="19.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
-    <col min="12" max="15" width="21.28515625" customWidth="1"/>
-    <col min="16" max="17" width="15.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
-    <col min="21" max="21" width="33.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.42578125" customWidth="1"/>
-    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="11" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="13" max="19" width="21.28515625" customWidth="1"/>
+    <col min="20" max="21" width="15.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="7.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="33.85546875" customWidth="1"/>
+    <col min="26" max="26" width="8" customWidth="1"/>
+    <col min="27" max="27" width="13.28515625" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" customWidth="1"/>
+    <col min="30" max="30" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>10</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>11</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>12</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="5">
-        <v>2240451788</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2">
+        <v>8400912017</v>
+      </c>
+      <c r="G2">
+        <v>2344</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2">
+        <v>2021</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2">
+        <v>1000000</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3">
+        <v>8400912017</v>
+      </c>
+      <c r="G3">
+        <v>2344</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T3">
+        <v>2021</v>
+      </c>
+      <c r="U3" t="s">
+        <v>54</v>
+      </c>
+      <c r="V3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3">
+        <v>1000000</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>8400912017</v>
+      </c>
+      <c r="G4">
+        <v>2344</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4">
+        <v>2021</v>
+      </c>
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X4">
+        <v>1000000</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5">
+        <v>8400912017</v>
+      </c>
+      <c r="G5">
+        <v>2344</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T5">
+        <v>2021</v>
+      </c>
+      <c r="U5" t="s">
+        <v>54</v>
+      </c>
+      <c r="V5" t="s">
+        <v>26</v>
+      </c>
+      <c r="W5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5">
+        <v>1000000</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>8400912017</v>
+      </c>
+      <c r="G6">
+        <v>2344</v>
+      </c>
+      <c r="H6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S6" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6">
+        <v>2021</v>
+      </c>
+      <c r="U6" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" t="s">
+        <v>26</v>
+      </c>
+      <c r="W6" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6">
+        <v>1000000</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>8400912017</v>
+      </c>
+      <c r="G7">
+        <v>2344</v>
+      </c>
+      <c r="H7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S7" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7">
+        <v>2021</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7">
+        <v>1000000</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>8400912017</v>
+      </c>
+      <c r="G8">
+        <v>2344</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S8" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8">
+        <v>2021</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" t="s">
+        <v>26</v>
+      </c>
+      <c r="W8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8">
+        <v>1000000</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>8400912017</v>
+      </c>
+      <c r="G9">
+        <v>2344</v>
+      </c>
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S9" t="s">
+        <v>79</v>
+      </c>
+      <c r="T9">
+        <v>2021</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9">
+        <v>1000000</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>8400912017</v>
+      </c>
+      <c r="G10">
+        <v>2344</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" t="s">
+        <v>79</v>
+      </c>
+      <c r="T10">
+        <v>2021</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10">
+        <v>1000000</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>8400912017</v>
+      </c>
+      <c r="G11">
+        <v>2344</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S11" t="s">
+        <v>79</v>
+      </c>
+      <c r="T11">
+        <v>2021</v>
+      </c>
+      <c r="U11" t="s">
+        <v>54</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11">
+        <v>1000000</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>8400912017</v>
+      </c>
+      <c r="G12">
+        <v>2344</v>
+      </c>
+      <c r="H12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="S12" t="s">
+        <v>79</v>
+      </c>
+      <c r="T12">
+        <v>2021</v>
+      </c>
+      <c r="U12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" t="s">
+        <v>28</v>
+      </c>
+      <c r="X12">
+        <v>1000000</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>7166033480</v>
+      </c>
+      <c r="G13">
         <v>2302</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H13" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T13">
+        <v>2021</v>
+      </c>
+      <c r="U13" t="s">
+        <v>54</v>
+      </c>
+      <c r="V13" t="s">
+        <v>113</v>
+      </c>
+      <c r="W13" t="s">
+        <v>114</v>
+      </c>
+      <c r="X13">
+        <v>1067000</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14">
+        <v>7166033480</v>
+      </c>
+      <c r="G14">
+        <v>2302</v>
+      </c>
+      <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T14">
+        <v>2021</v>
+      </c>
+      <c r="U14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" t="s">
+        <v>113</v>
+      </c>
+      <c r="W14" t="s">
+        <v>114</v>
+      </c>
+      <c r="X14">
+        <v>1067000</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>7166033480</v>
+      </c>
+      <c r="G15">
+        <v>2302</v>
+      </c>
+      <c r="H15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T15">
+        <v>2021</v>
+      </c>
+      <c r="U15" t="s">
+        <v>54</v>
+      </c>
+      <c r="V15" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" t="s">
+        <v>114</v>
+      </c>
+      <c r="X15">
+        <v>1067000</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>7166033480</v>
+      </c>
+      <c r="G16">
+        <v>2302</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T16">
+        <v>2021</v>
+      </c>
+      <c r="U16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" t="s">
+        <v>113</v>
+      </c>
+      <c r="W16" t="s">
+        <v>114</v>
+      </c>
+      <c r="X16">
+        <v>1067000</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>7166033480</v>
+      </c>
+      <c r="G17">
+        <v>2302</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L17" t="s">
         <v>17</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2"/>
-      <c r="N2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2">
+      <c r="M17" t="s">
+        <v>24</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T17">
         <v>2021</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="U17" t="s">
         <v>54</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V17" t="s">
+        <v>113</v>
+      </c>
+      <c r="W17" t="s">
+        <v>114</v>
+      </c>
+      <c r="X17">
+        <v>1067000</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18">
+        <v>7166033480</v>
+      </c>
+      <c r="G18">
+        <v>2302</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T18">
+        <v>2021</v>
+      </c>
+      <c r="U18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" t="s">
+        <v>113</v>
+      </c>
+      <c r="W18" t="s">
+        <v>114</v>
+      </c>
+      <c r="X18">
+        <v>1067000</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>7166033480</v>
+      </c>
+      <c r="G19">
+        <v>2302</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19">
+        <v>2021</v>
+      </c>
+      <c r="U19" t="s">
+        <v>54</v>
+      </c>
+      <c r="V19" t="s">
+        <v>113</v>
+      </c>
+      <c r="W19" t="s">
+        <v>114</v>
+      </c>
+      <c r="X19">
+        <v>1067000</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>7166033480</v>
+      </c>
+      <c r="G20">
+        <v>2302</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T20">
+        <v>2021</v>
+      </c>
+      <c r="U20" t="s">
+        <v>54</v>
+      </c>
+      <c r="V20" t="s">
+        <v>113</v>
+      </c>
+      <c r="W20" t="s">
+        <v>114</v>
+      </c>
+      <c r="X20">
+        <v>1067000</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <v>7166033480</v>
+      </c>
+      <c r="G21">
+        <v>2302</v>
+      </c>
+      <c r="H21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T21">
+        <v>2021</v>
+      </c>
+      <c r="U21" t="s">
+        <v>54</v>
+      </c>
+      <c r="V21" t="s">
+        <v>113</v>
+      </c>
+      <c r="W21" t="s">
+        <v>114</v>
+      </c>
+      <c r="X21">
+        <v>1067000</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AB21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="11">
+        <v>7166033480</v>
+      </c>
+      <c r="G22" s="11">
+        <v>2302</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T22">
+        <v>2021</v>
+      </c>
+      <c r="U22" t="s">
+        <v>54</v>
+      </c>
+      <c r="V22" t="s">
+        <v>113</v>
+      </c>
+      <c r="W22" t="s">
+        <v>114</v>
+      </c>
+      <c r="X22">
+        <v>1067000</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA22" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>1571314844</v>
+      </c>
+      <c r="G23">
+        <v>2888</v>
+      </c>
+      <c r="H23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T23">
+        <v>2021</v>
+      </c>
+      <c r="U23" t="s">
+        <v>54</v>
+      </c>
+      <c r="V23" t="s">
+        <v>146</v>
+      </c>
+      <c r="W23" t="s">
+        <v>147</v>
+      </c>
+      <c r="X23">
+        <v>1339000</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>1571314844</v>
+      </c>
+      <c r="G24">
+        <v>2888</v>
+      </c>
+      <c r="H24" t="s">
+        <v>145</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K24" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" t="s">
+        <v>17</v>
+      </c>
+      <c r="M24" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T24">
+        <v>2021</v>
+      </c>
+      <c r="U24" t="s">
+        <v>54</v>
+      </c>
+      <c r="V24" t="s">
+        <v>146</v>
+      </c>
+      <c r="W24" t="s">
+        <v>147</v>
+      </c>
+      <c r="X24">
+        <v>1339000</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA24" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>1571314844</v>
+      </c>
+      <c r="G25">
+        <v>2888</v>
+      </c>
+      <c r="H25" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T25">
+        <v>2021</v>
+      </c>
+      <c r="U25" t="s">
+        <v>54</v>
+      </c>
+      <c r="V25" t="s">
+        <v>146</v>
+      </c>
+      <c r="W25" t="s">
+        <v>147</v>
+      </c>
+      <c r="X25">
+        <v>1339000</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>1571314844</v>
+      </c>
+      <c r="G26">
+        <v>2888</v>
+      </c>
+      <c r="H26" t="s">
+        <v>145</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26">
+        <v>2021</v>
+      </c>
+      <c r="U26" t="s">
+        <v>54</v>
+      </c>
+      <c r="V26" t="s">
+        <v>146</v>
+      </c>
+      <c r="W26" t="s">
+        <v>147</v>
+      </c>
+      <c r="X26">
+        <v>1339000</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AA26" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="S2" t="s">
+      <c r="B27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>1571314844</v>
+      </c>
+      <c r="G27">
+        <v>2888</v>
+      </c>
+      <c r="H27" t="s">
+        <v>145</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" t="s">
+        <v>24</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T27">
+        <v>2021</v>
+      </c>
+      <c r="U27" t="s">
+        <v>54</v>
+      </c>
+      <c r="V27" t="s">
+        <v>146</v>
+      </c>
+      <c r="W27" t="s">
+        <v>147</v>
+      </c>
+      <c r="X27">
+        <v>1339000</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AA27" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>1571314844</v>
+      </c>
+      <c r="G28">
+        <v>2888</v>
+      </c>
+      <c r="H28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K28" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" t="s">
+        <v>24</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T28">
+        <v>2021</v>
+      </c>
+      <c r="U28" t="s">
+        <v>54</v>
+      </c>
+      <c r="V28" t="s">
+        <v>146</v>
+      </c>
+      <c r="W28" t="s">
+        <v>147</v>
+      </c>
+      <c r="X28">
+        <v>1339000</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>28</v>
       </c>
-      <c r="T2">
-        <v>934000</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="B29" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <v>1571314844</v>
+      </c>
+      <c r="G29">
+        <v>2888</v>
+      </c>
+      <c r="H29" t="s">
+        <v>145</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" t="s">
+        <v>61</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T29">
+        <v>2021</v>
+      </c>
+      <c r="U29" t="s">
+        <v>54</v>
+      </c>
+      <c r="V29" t="s">
+        <v>146</v>
+      </c>
+      <c r="W29" t="s">
+        <v>147</v>
+      </c>
+      <c r="X29">
+        <v>1339000</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AD29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5">
-        <v>2240451788</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2302</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="E30" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>1571314844</v>
+      </c>
+      <c r="G30">
+        <v>2888</v>
+      </c>
+      <c r="H30" t="s">
+        <v>145</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K30" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3"/>
-      <c r="P3">
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="R30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T30">
         <v>2021</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="U30" t="s">
         <v>54</v>
       </c>
-      <c r="R3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3">
-        <v>934000</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" s="1" t="s">
+      <c r="V30" t="s">
+        <v>146</v>
+      </c>
+      <c r="W30" t="s">
+        <v>147</v>
+      </c>
+      <c r="X30">
+        <v>1339000</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AD30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>1571314844</v>
+      </c>
+      <c r="G31">
+        <v>2888</v>
+      </c>
+      <c r="H31" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K31" t="s">
+        <v>61</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T31">
+        <v>2021</v>
+      </c>
+      <c r="U31" t="s">
+        <v>54</v>
+      </c>
+      <c r="V31" t="s">
+        <v>146</v>
+      </c>
+      <c r="W31" t="s">
+        <v>147</v>
+      </c>
+      <c r="X31">
+        <v>1339000</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AC31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1571314844</v>
+      </c>
+      <c r="G32" s="11">
+        <v>2888</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T32">
+        <v>2021</v>
+      </c>
+      <c r="U32" t="s">
+        <v>54</v>
+      </c>
+      <c r="V32" t="s">
+        <v>146</v>
+      </c>
+      <c r="W32" t="s">
+        <v>147</v>
+      </c>
+      <c r="X32">
+        <v>1339000</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD32" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{E475BCAC-0925-47C7-AAB7-A81C65C95B6F}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{D728F3B1-A855-4686-A962-010CCCA5E6C3}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{1022476F-49F8-4D1F-B6BD-FD267A30DAC9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F17E96D0-9D27-48B8-9D07-21CDE88A40D1}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{0FBF003D-0463-434E-8C28-8409C61BA11D}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{63FAEEB7-A08F-46FE-BAAA-F7891C333E57}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{2C7BC055-F12C-4F5A-A747-965E00E8C14B}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{985CC0E0-8FB8-47C4-ADF1-85E4D375691B}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{EE25E375-C873-4600-B786-004D8E5946BD}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{9094CD43-49B5-4A06-8FC4-DECBFBD2CCFB}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{EDC99CE6-FC7D-4B49-9E3F-A941531F4618}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{F0FB4C28-C1B9-469C-902E-1D1440A05203}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{5F257B14-7A52-43D6-95A6-321CE937DEA2}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{EF0F3F46-FAB5-42EB-805E-9260E79D9E89}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{47BB6225-3A91-4645-859B-9A5A90ADEC6E}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{FF337269-EB13-4C1C-864F-A698445B66B8}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{AB18DB21-9FE4-4271-8249-372055A5F1B2}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{609909F3-D549-448C-9469-1BC4B1D8ADDE}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{1823B16C-8EFE-49F3-8509-77B3DBEE0349}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{8345F511-EFA1-465C-ABA3-D38D46FF3F86}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{8866874F-47F6-4036-9ABC-38399795284A}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{10FE4E50-A8AB-4C67-B76E-330A1B03406D}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{5360002D-5F47-4EE7-A312-FDD130B124B0}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{3AF6FB0A-3C1D-4759-8119-36FA50ABF4CE}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{7ED23358-4C28-484F-91C1-5C231D1DC240}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{696EA646-137D-4EC8-8E8F-E834A7FD4829}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{5DDCC2C8-BF15-418B-85AB-C00A0011F733}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{43E5AD2D-BA41-4538-B552-9BA9A2F9C144}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{B92B7875-F58D-4AB9-9CC1-3A8AC53239DC}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{DE9B5FC0-AEBF-4D29-B397-573C107602AC}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{F66A2A4B-17EF-45B5-BB86-92DC44ED5C0C}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{1619524F-ABB5-4E6F-9640-0C4F4C7BC072}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{846F3155-A9E1-4D27-841A-76D4A61B5D7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A52CCAF-1465-4F3A-B5F2-0A04D3592E2D}">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,11 +3813,167 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:26" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2240451788</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2302</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5"/>
+      <c r="N5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5">
+        <v>2021</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>54</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5">
+        <v>1600000</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="1" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2240451788</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2302</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6"/>
+      <c r="P6">
+        <v>2021</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6">
+        <v>1600000</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{A42C4916-8BD6-49E4-9646-6F39DFBD1C31}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{AB63469B-EDA2-4E4E-925B-6C5A8A8C78F9}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{B1654328-BF60-40A3-A134-3701693A7710}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E475BCAC-0925-47C7-AAB7-A81C65C95B6F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{4924FA26-998D-4A40-9274-BAC877A284E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFC234F-8C53-47B9-9CD1-02F052A46048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA997F8E-E0F9-4E25-B9D1-12865F1B98B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="182">
   <si>
     <t>Usuario</t>
   </si>
@@ -571,6 +571,15 @@
   </si>
   <si>
     <t>ZAZ123PQM031</t>
+  </si>
+  <si>
+    <t>TipoTarjeta</t>
+  </si>
+  <si>
+    <t>NumTarjetaCred</t>
+  </si>
+  <si>
+    <t>FechaVencimiento</t>
   </si>
 </sst>
 </file>
@@ -950,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:A32"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1031,15 @@
       </c>
       <c r="N1" t="s">
         <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>179</v>
+      </c>
+      <c r="P1" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>181</v>
       </c>
       <c r="R1" t="s">
         <v>31</v>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA997F8E-E0F9-4E25-B9D1-12865F1B98B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0F367-D52E-4969-9D69-A3559ECF1DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,114 +267,12 @@
     <t>14/09/2020</t>
   </si>
   <si>
-    <t>COTIZADORWEB</t>
-  </si>
-  <si>
     <t>5895627074474009</t>
   </si>
   <si>
     <t>1. VUELVE CLIENTE</t>
   </si>
   <si>
-    <t>PQM001</t>
-  </si>
-  <si>
-    <t>PQM003</t>
-  </si>
-  <si>
-    <t>PQM004</t>
-  </si>
-  <si>
-    <t>PQM005</t>
-  </si>
-  <si>
-    <t>PQM006</t>
-  </si>
-  <si>
-    <t>PQM007</t>
-  </si>
-  <si>
-    <t>PQM008</t>
-  </si>
-  <si>
-    <t>PQM009</t>
-  </si>
-  <si>
-    <t>ABC12PQM001</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM001</t>
-  </si>
-  <si>
-    <t>PQM002</t>
-  </si>
-  <si>
-    <t>ABC12PQM002</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM002</t>
-  </si>
-  <si>
-    <t>ABC12PQM003</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM003</t>
-  </si>
-  <si>
-    <t>ABC12PQM004</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM004</t>
-  </si>
-  <si>
-    <t>ABC12PQM005</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM005</t>
-  </si>
-  <si>
-    <t>ABC12PQM006</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM006</t>
-  </si>
-  <si>
-    <t>ABC12PQM007</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM007</t>
-  </si>
-  <si>
-    <t>ABC12PQM008</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM008</t>
-  </si>
-  <si>
-    <t>ABC12PQM009</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM009</t>
-  </si>
-  <si>
-    <t>PQM010</t>
-  </si>
-  <si>
-    <t>ABC12PQM010</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM010</t>
-  </si>
-  <si>
-    <t>PQM011</t>
-  </si>
-  <si>
-    <t>ABC12PQM011</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM011</t>
-  </si>
-  <si>
     <t>CHERY</t>
   </si>
   <si>
@@ -580,6 +478,108 @@
   </si>
   <si>
     <t>FechaVencimiento</t>
+  </si>
+  <si>
+    <t>01/09/2020</t>
+  </si>
+  <si>
+    <t>PQM032</t>
+  </si>
+  <si>
+    <t>ABC12PQM032</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM032</t>
+  </si>
+  <si>
+    <t>PQM037</t>
+  </si>
+  <si>
+    <t>ABC12PQM037</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM037</t>
+  </si>
+  <si>
+    <t>PQM038</t>
+  </si>
+  <si>
+    <t>ABC12PQM038</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM038</t>
+  </si>
+  <si>
+    <t>PQM039</t>
+  </si>
+  <si>
+    <t>ABC12PQM039</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM039</t>
+  </si>
+  <si>
+    <t>PQM040</t>
+  </si>
+  <si>
+    <t>ABC12PQM040</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM040</t>
+  </si>
+  <si>
+    <t>PQM041</t>
+  </si>
+  <si>
+    <t>ABC12PQM041</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM041</t>
+  </si>
+  <si>
+    <t>PQM042</t>
+  </si>
+  <si>
+    <t>ABC12PQM042</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM042</t>
+  </si>
+  <si>
+    <t>PQM048</t>
+  </si>
+  <si>
+    <t>ABC12PQM048</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM048</t>
+  </si>
+  <si>
+    <t>PQM049</t>
+  </si>
+  <si>
+    <t>ABC12PQM049</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM049</t>
+  </si>
+  <si>
+    <t>PQM050</t>
+  </si>
+  <si>
+    <t>ABC12PQM050</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM050</t>
+  </si>
+  <si>
+    <t>PQM051</t>
+  </si>
+  <si>
+    <t>ABC12PQM051</t>
+  </si>
+  <si>
+    <t>ZAZ123PQM051</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -625,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
@@ -676,6 +682,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -957,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD32"/>
+  <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +995,7 @@
     <col min="13" max="19" width="21.28515625" customWidth="1"/>
     <col min="20" max="21" width="15.42578125" customWidth="1"/>
     <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="23" max="23" width="7.85546875" customWidth="1"/>
+    <col min="23" max="23" width="17.7109375" customWidth="1"/>
     <col min="24" max="24" width="11.5703125" customWidth="1"/>
     <col min="25" max="25" width="33.85546875" customWidth="1"/>
     <col min="26" max="26" width="8" customWidth="1"/>
@@ -1033,13 +1049,13 @@
         <v>22</v>
       </c>
       <c r="O1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="P1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="Q1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="R1" t="s">
         <v>31</v>
@@ -1081,29 +1097,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>8400912017</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>2344</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1112,78 +1128,78 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2">
+        <v>78</v>
+      </c>
+      <c r="T2" s="1">
         <v>2021</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="1">
         <v>1000000</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>88</v>
+        <v>171</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+    <row r="3" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>8400912017</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>2344</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1192,82 +1208,78 @@
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="R3" s="2" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="T3">
+        <v>78</v>
+      </c>
+      <c r="T3" s="1">
         <v>2021</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>1000000</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>92</v>
+        <v>175</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>8400912017</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>2344</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1276,87 +1288,87 @@
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="M4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" t="s">
-        <v>79</v>
-      </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>2021</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>1000000</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>93</v>
+        <v>177</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>94</v>
+        <v>178</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>8400912017</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>2344</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1365,647 +1377,638 @@
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="M5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="P5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" t="s">
-        <v>79</v>
-      </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>2021</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V5" t="s">
+      <c r="V5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W5" t="s">
+      <c r="W5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>1000000</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>82</v>
+        <v>179</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+    <row r="6" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="15">
         <v>8400912017</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="15">
         <v>2344</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s">
-        <v>79</v>
-      </c>
-      <c r="T6">
+      <c r="M6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" s="15">
         <v>2021</v>
       </c>
-      <c r="U6" t="s">
+      <c r="U6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V6" t="s">
+      <c r="V6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="15">
         <v>1000000</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC6" s="1" t="s">
+      <c r="Y6" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AD6" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+    <row r="7" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="15">
         <v>8400912017</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="15">
         <v>2344</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S7" t="s">
-        <v>79</v>
-      </c>
-      <c r="T7">
+      <c r="M7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T7" s="15">
         <v>2021</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="15">
         <v>1000000</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>25</v>
+      <c r="Y7" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC7" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+    <row r="8" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="15">
         <v>8400912017</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="15">
         <v>2344</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>79</v>
-      </c>
-      <c r="T8">
+      <c r="M8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T8" s="15">
         <v>2021</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="15">
         <v>1000000</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>25</v>
+      <c r="Y8" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+    <row r="9" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="15">
         <v>8400912017</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="15">
         <v>2344</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>79</v>
-      </c>
-      <c r="T9">
+      <c r="M9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S9" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="15">
         <v>2021</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V9" t="s">
+      <c r="V9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W9" t="s">
+      <c r="W9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="15">
         <v>1000000</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>25</v>
+      <c r="Y9" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+    <row r="10" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="15">
         <v>8400912017</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="15">
         <v>2344</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" t="s">
-        <v>79</v>
-      </c>
-      <c r="T10">
+      <c r="M10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="15">
         <v>2021</v>
       </c>
-      <c r="U10" t="s">
+      <c r="U10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V10" t="s">
+      <c r="V10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W10" t="s">
+      <c r="W10" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="15">
         <v>1000000</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>25</v>
+      <c r="Y10" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>87</v>
+        <v>161</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+    <row r="11" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="15">
         <v>8400912017</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="15">
         <v>2344</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M11" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S11" t="s">
-        <v>79</v>
-      </c>
-      <c r="T11">
+      <c r="M11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T11" s="15">
         <v>2021</v>
       </c>
-      <c r="U11" t="s">
+      <c r="U11" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V11" t="s">
+      <c r="V11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W11" t="s">
+      <c r="W11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="15">
         <v>1000000</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>25</v>
+      <c r="Y11" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>108</v>
+        <v>165</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC11" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+    <row r="12" spans="1:30" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="15">
         <v>8400912017</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="15">
         <v>2344</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L12" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" t="s">
-        <v>79</v>
-      </c>
-      <c r="T12">
+      <c r="M12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="S12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="T12" s="15">
         <v>2021</v>
       </c>
-      <c r="U12" t="s">
+      <c r="U12" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="V12" t="s">
+      <c r="V12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="W12" t="s">
+      <c r="W12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="15">
         <v>1000000</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>25</v>
+      <c r="Y12" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AD12" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+    <row r="13" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>7166033480</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>2302</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2014,49 +2017,49 @@
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T13">
+        <v>148</v>
+      </c>
+      <c r="T13" s="1">
         <v>2021</v>
       </c>
-      <c r="U13" t="s">
+      <c r="U13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V13" t="s">
-        <v>113</v>
-      </c>
-      <c r="W13" t="s">
-        <v>114</v>
-      </c>
-      <c r="X13">
+      <c r="V13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="X13" s="1">
         <v>1067000</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="AA13" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="AC13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AD13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2110,10 +2113,10 @@
         <v>54</v>
       </c>
       <c r="V14" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X14">
         <v>1067000</v>
@@ -2122,13 +2125,13 @@
         <v>37</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="AA14" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="AC14" s="1" t="s">
         <v>18</v>
@@ -2181,7 +2184,7 @@
         <v>74</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>75</v>
@@ -2196,10 +2199,10 @@
         <v>54</v>
       </c>
       <c r="V15" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X15">
         <v>1067000</v>
@@ -2208,13 +2211,13 @@
         <v>37</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="AA15" s="1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="AC15" s="1" t="s">
         <v>18</v>
@@ -2267,7 +2270,7 @@
         <v>74</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="6" t="s">
         <v>75</v>
@@ -2282,10 +2285,10 @@
         <v>54</v>
       </c>
       <c r="V16" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X16">
         <v>1067000</v>
@@ -2294,13 +2297,13 @@
         <v>37</v>
       </c>
       <c r="Z16" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="AA16" s="1" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="AC16" s="1" t="s">
         <v>18</v>
@@ -2359,10 +2362,10 @@
         <v>54</v>
       </c>
       <c r="V17" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X17">
         <v>1067000</v>
@@ -2371,13 +2374,13 @@
         <v>37</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="AA17" s="1" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="AC17" s="1" t="s">
         <v>18</v>
@@ -2436,10 +2439,10 @@
         <v>54</v>
       </c>
       <c r="V18" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X18">
         <v>1067000</v>
@@ -2448,13 +2451,13 @@
         <v>37</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="AA18" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="AC18" s="1" t="s">
         <v>18</v>
@@ -2513,10 +2516,10 @@
         <v>54</v>
       </c>
       <c r="V19" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X19">
         <v>1067000</v>
@@ -2525,13 +2528,13 @@
         <v>37</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="AA19" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>18</v>
@@ -2590,10 +2593,10 @@
         <v>54</v>
       </c>
       <c r="V20" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X20">
         <v>1067000</v>
@@ -2602,13 +2605,13 @@
         <v>37</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="AA20" s="1" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>18</v>
@@ -2667,10 +2670,10 @@
         <v>54</v>
       </c>
       <c r="V21" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X21">
         <v>1067000</v>
@@ -2679,13 +2682,13 @@
         <v>37</v>
       </c>
       <c r="Z21" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="AA21" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>18</v>
@@ -2744,10 +2747,10 @@
         <v>54</v>
       </c>
       <c r="V22" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="X22">
         <v>1067000</v>
@@ -2756,13 +2759,13 @@
         <v>37</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="AA22" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>18</v>
@@ -2794,7 +2797,7 @@
         <v>2888</v>
       </c>
       <c r="H23" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>13</v>
@@ -2821,25 +2824,25 @@
         <v>54</v>
       </c>
       <c r="V23" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W23" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X23">
         <v>1339000</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="AA23" s="1" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="AC23" s="1" t="s">
         <v>18</v>
@@ -2871,7 +2874,7 @@
         <v>2888</v>
       </c>
       <c r="H24" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>13</v>
@@ -2898,25 +2901,25 @@
         <v>54</v>
       </c>
       <c r="V24" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W24" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X24">
         <v>1339000</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z24" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="AA24" s="1" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="AC24" s="1" t="s">
         <v>18</v>
@@ -2948,7 +2951,7 @@
         <v>2888</v>
       </c>
       <c r="H25" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I25" s="11" t="s">
         <v>13</v>
@@ -2969,7 +2972,7 @@
         <v>74</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>75</v>
@@ -2984,25 +2987,25 @@
         <v>54</v>
       </c>
       <c r="V25" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W25" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X25">
         <v>1339000</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z25" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="AA25" s="1" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="AC25" s="1" t="s">
         <v>18</v>
@@ -3034,7 +3037,7 @@
         <v>2888</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>13</v>
@@ -3055,7 +3058,7 @@
         <v>74</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>75</v>
@@ -3070,25 +3073,25 @@
         <v>54</v>
       </c>
       <c r="V26" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W26" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X26">
         <v>1339000</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z26" s="1" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="AA26" s="1" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="AC26" s="1" t="s">
         <v>18</v>
@@ -3120,7 +3123,7 @@
         <v>2888</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>13</v>
@@ -3147,25 +3150,25 @@
         <v>54</v>
       </c>
       <c r="V27" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W27" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X27">
         <v>1339000</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="AA27" s="1" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="AC27" s="1" t="s">
         <v>18</v>
@@ -3197,7 +3200,7 @@
         <v>2888</v>
       </c>
       <c r="H28" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>13</v>
@@ -3224,25 +3227,25 @@
         <v>54</v>
       </c>
       <c r="V28" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W28" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X28">
         <v>1339000</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="AA28" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="AC28" s="1" t="s">
         <v>18</v>
@@ -3274,7 +3277,7 @@
         <v>2888</v>
       </c>
       <c r="H29" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>13</v>
@@ -3301,25 +3304,25 @@
         <v>54</v>
       </c>
       <c r="V29" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W29" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X29">
         <v>1339000</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z29" s="1" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="AA29" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="AC29" s="1" t="s">
         <v>18</v>
@@ -3351,7 +3354,7 @@
         <v>2888</v>
       </c>
       <c r="H30" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>13</v>
@@ -3378,25 +3381,25 @@
         <v>54</v>
       </c>
       <c r="V30" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W30" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X30">
         <v>1339000</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z30" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AA30" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="AC30" s="1" t="s">
         <v>18</v>
@@ -3428,7 +3431,7 @@
         <v>2888</v>
       </c>
       <c r="H31" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>13</v>
@@ -3455,25 +3458,25 @@
         <v>54</v>
       </c>
       <c r="V31" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W31" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X31">
         <v>1339000</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z31" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="AA31" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="AC31" s="1" t="s">
         <v>18</v>
@@ -3505,7 +3508,7 @@
         <v>2888</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>13</v>
@@ -3532,31 +3535,42 @@
         <v>54</v>
       </c>
       <c r="V32" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="W32" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="X32">
         <v>1339000</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="AA32" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="AC32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AD32" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="26:28" x14ac:dyDescent="0.25">
+      <c r="Z33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D0F367-D52E-4969-9D69-A3559ECF1DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B29DA9-976C-41EC-B6F5-20A7B62134E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="180">
   <si>
     <t>Usuario</t>
   </si>
@@ -483,15 +483,6 @@
     <t>01/09/2020</t>
   </si>
   <si>
-    <t>PQM032</t>
-  </si>
-  <si>
-    <t>ABC12PQM032</t>
-  </si>
-  <si>
-    <t>ZAZ123PQM032</t>
-  </si>
-  <si>
     <t>PQM037</t>
   </si>
   <si>
@@ -580,6 +571,9 @@
   </si>
   <si>
     <t>ZAZ123PQM051</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
   </si>
 </sst>
 </file>
@@ -973,16 +967,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
@@ -1162,13 +1156,13 @@
         <v>114</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>18</v>
@@ -1242,13 +1236,13 @@
         <v>114</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="AC3" s="1" t="s">
         <v>18</v>
@@ -1331,13 +1325,13 @@
         <v>114</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>18</v>
@@ -1420,13 +1414,13 @@
         <v>114</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC5" s="1" t="s">
         <v>18</v>
@@ -1571,13 +1565,13 @@
         <v>114</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AC7" s="15" t="s">
         <v>18</v>
@@ -1651,13 +1645,13 @@
         <v>114</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AC8" s="15" t="s">
         <v>18</v>
@@ -1731,13 +1725,13 @@
         <v>114</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="AC9" s="15" t="s">
         <v>18</v>
@@ -1811,13 +1805,13 @@
         <v>114</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="AC10" s="15" t="s">
         <v>18</v>
@@ -1891,13 +1885,13 @@
         <v>114</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="AC11" s="15" t="s">
         <v>18</v>
@@ -1971,13 +1965,13 @@
         <v>114</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AA12" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="15" t="s">
         <v>18</v>
@@ -3485,7 +3479,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:30" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>31</v>
       </c>
@@ -3562,15 +3556,162 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="26:28" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="5">
+        <v>2240451788</v>
+      </c>
+      <c r="G33" s="7">
+        <v>2302</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+      <c r="M33" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="S33" s="1"/>
+      <c r="T33">
+        <v>2021</v>
+      </c>
+      <c r="U33" t="s">
+        <v>54</v>
+      </c>
+      <c r="V33" t="s">
+        <v>26</v>
+      </c>
+      <c r="W33" t="s">
+        <v>28</v>
+      </c>
+      <c r="X33">
+        <v>1600000</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="Z33" s="1" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="AA33" s="1" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>151</v>
+        <v>65</v>
+      </c>
+      <c r="AC33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="5">
+        <v>2240451788</v>
+      </c>
+      <c r="G34" s="7">
+        <v>2302</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" t="s">
+        <v>35</v>
+      </c>
+      <c r="M34" t="s">
+        <v>36</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T34">
+        <v>2021</v>
+      </c>
+      <c r="U34" t="s">
+        <v>54</v>
+      </c>
+      <c r="V34" t="s">
+        <v>26</v>
+      </c>
+      <c r="W34" t="s">
+        <v>28</v>
+      </c>
+      <c r="X34">
+        <v>1600000</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3607,9 +3748,11 @@
     <hyperlink ref="C30" r:id="rId29" xr:uid="{F66A2A4B-17EF-45B5-BB86-92DC44ED5C0C}"/>
     <hyperlink ref="C31" r:id="rId30" xr:uid="{1619524F-ABB5-4E6F-9640-0C4F4C7BC072}"/>
     <hyperlink ref="C32" r:id="rId31" xr:uid="{846F3155-A9E1-4D27-841A-76D4A61B5D7D}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{240C4753-1F98-4A58-A14D-84380D36C597}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{DEC23CCC-7E9C-40A6-A218-BFA683BBB8B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId32"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -3618,7 +3761,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B29DA9-976C-41EC-B6F5-20A7B62134E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DDC7E-F751-40BB-9C97-D9620D86D71E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1DDC7E-F751-40BB-9C97-D9620D86D71E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24323789-A435-4F02-A4C8-E64F29D931D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
   <dimension ref="A1:AD34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,7 +3573,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5">
-        <v>2240451788</v>
+        <v>7635954411</v>
       </c>
       <c r="G33" s="7">
         <v>2302</v>
@@ -3651,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="5">
-        <v>2240451788</v>
+        <v>7635954411</v>
       </c>
       <c r="G34" s="7">
         <v>2302</v>

--- a/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
+++ b/Sura/DataSource - Emision Motor Accesorio Movilidad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maruiz\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24323789-A435-4F02-A4C8-E64F29D931D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59790E2C-A9E8-4527-AB5A-4380C11012C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -573,7 +573,7 @@
     <t>ZAZ123PQM051</t>
   </si>
   <si>
-    <t>06/05/2021</t>
+    <t>17/06/2021</t>
   </si>
 </sst>
 </file>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3573,7 +3573,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="5">
-        <v>7635954411</v>
+        <v>5069929970</v>
       </c>
       <c r="G33" s="7">
         <v>2302</v>
@@ -3651,7 +3651,7 @@
         <v>32</v>
       </c>
       <c r="F34" s="5">
-        <v>7635954411</v>
+        <v>5069929970</v>
       </c>
       <c r="G34" s="7">
         <v>2302</v>
